--- a/data/trans_orig/DCD_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>158391</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>138934</v>
+        <v>139348</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>178310</v>
+        <v>179181</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2737817565338848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2401508722920657</v>
+        <v>0.2408662038780819</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3082128925542634</v>
+        <v>0.3097180882186137</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>703</v>
@@ -762,19 +762,19 @@
         <v>386033</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>364622</v>
+        <v>361237</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>407076</v>
+        <v>408520</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4696046170263886</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.443558754857777</v>
+        <v>0.4394408728522496</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4952027911846673</v>
+        <v>0.4969605510479333</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>921</v>
@@ -783,19 +783,19 @@
         <v>544423</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>515328</v>
+        <v>511565</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>576822</v>
+        <v>576790</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3887164751603277</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3679420609103553</v>
+        <v>0.3652557762002409</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4118486247186869</v>
+        <v>0.4118261512246735</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>420138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>400219</v>
+        <v>399348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>439595</v>
+        <v>439181</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7262182434661153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6917871074457365</v>
+        <v>0.6902819117813861</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.759849127707934</v>
+        <v>0.7591337961219181</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>724</v>
@@ -833,19 +833,19 @@
         <v>436005</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>414962</v>
+        <v>413518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>457416</v>
+        <v>460801</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5303953829736114</v>
+        <v>0.5303953829736113</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5047972088153326</v>
+        <v>0.503039448952067</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5564412451422232</v>
+        <v>0.5605591271477506</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1197</v>
@@ -854,19 +854,19 @@
         <v>856144</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>823745</v>
+        <v>823777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>885239</v>
+        <v>889002</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6112835248396725</v>
+        <v>0.6112835248396723</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5881513752813132</v>
+        <v>0.5881738487753273</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6320579390896448</v>
+        <v>0.6347442237997596</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>277829</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>249527</v>
+        <v>247072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>315081</v>
+        <v>309131</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1245552193859638</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1118670087625787</v>
+        <v>0.1107663363687929</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1412560814997816</v>
+        <v>0.1385887463004568</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>730</v>
@@ -979,19 +979,19 @@
         <v>508478</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>475562</v>
+        <v>472348</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>550109</v>
+        <v>546612</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2341716372870088</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.219012287996282</v>
+        <v>0.2175322818396701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2533439999941345</v>
+        <v>0.2517334279014153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1024</v>
@@ -1000,19 +1000,19 @@
         <v>786307</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>734061</v>
+        <v>734823</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>834780</v>
+        <v>833890</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1786266578432165</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1667577624146958</v>
+        <v>0.166930900924208</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1896383368381786</v>
+        <v>0.1894361207460969</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1952737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1915485</v>
+        <v>1921435</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1981039</v>
+        <v>1983494</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8754447806140362</v>
+        <v>0.8754447806140363</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8587439185002184</v>
+        <v>0.8614112536995433</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8881329912374213</v>
+        <v>0.8892336636312071</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2191</v>
@@ -1050,19 +1050,19 @@
         <v>1662914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1621283</v>
+        <v>1624780</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1695830</v>
+        <v>1699044</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7658283627129912</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7466560000058655</v>
+        <v>0.7482665720985848</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7809877120037181</v>
+        <v>0.7824677181603299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3889</v>
@@ -1071,19 +1071,19 @@
         <v>3615652</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3567179</v>
+        <v>3568069</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3667898</v>
+        <v>3667136</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8213733421567834</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8103616631618212</v>
+        <v>0.8105638792539031</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.833242237585304</v>
+        <v>0.8330690990757921</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>60118</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46590</v>
+        <v>47443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77094</v>
+        <v>77805</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08448502849819606</v>
+        <v>0.08448502849819604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06547343877302886</v>
+        <v>0.06667156995384392</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1083411793149861</v>
+        <v>0.1093402713788628</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -1196,19 +1196,19 @@
         <v>153639</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>134426</v>
+        <v>134196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173939</v>
+        <v>172900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2090682679734295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1829224786109794</v>
+        <v>0.1826105671949737</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2366907299042497</v>
+        <v>0.235277222609467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>271</v>
@@ -1217,19 +1217,19 @@
         <v>213758</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>189070</v>
+        <v>190046</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>239079</v>
+        <v>240876</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.14777963695264</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1307116485912343</v>
+        <v>0.1313868144801841</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1652852731256394</v>
+        <v>0.166527568732697</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>651469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>634493</v>
+        <v>633782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>664997</v>
+        <v>664144</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9155149715018041</v>
+        <v>0.9155149715018038</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.891658820685014</v>
+        <v>0.8906597286211362</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9345265612269711</v>
+        <v>0.9333284300461558</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>796</v>
@@ -1267,19 +1267,19 @@
         <v>581238</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>560938</v>
+        <v>561977</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>600451</v>
+        <v>600681</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7909317320265702</v>
+        <v>0.7909317320265705</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7633092700957504</v>
+        <v>0.7647227773905327</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8170775213890206</v>
+        <v>0.8173894328050261</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1414</v>
@@ -1288,19 +1288,19 @@
         <v>1232706</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1207385</v>
+        <v>1205588</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1257394</v>
+        <v>1256418</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.85222036304736</v>
+        <v>0.8522203630473599</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8347147268743605</v>
+        <v>0.8334724312673031</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8692883514087657</v>
+        <v>0.8686131855198158</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>496338</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>453708</v>
+        <v>456392</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>540957</v>
+        <v>539720</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1409777476764339</v>
+        <v>0.140977747676434</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.12886926777823</v>
+        <v>0.1296316633300728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1536512933851401</v>
+        <v>0.1532997006910746</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1641</v>
@@ -1413,19 +1413,19 @@
         <v>1048151</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>998398</v>
+        <v>997589</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1099207</v>
+        <v>1096337</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2811331443851533</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2677885690704904</v>
+        <v>0.2675714724218982</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2948274308555304</v>
+        <v>0.2940575226369863</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2216</v>
@@ -1434,19 +1434,19 @@
         <v>1544489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1483667</v>
+        <v>1485775</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1616897</v>
+        <v>1617985</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2130626008958966</v>
+        <v>0.2130626008958967</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.20467227796627</v>
+        <v>0.2049630068370479</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2230513507994096</v>
+        <v>0.2232014092589332</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3024345</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2979726</v>
+        <v>2980963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3066975</v>
+        <v>3064291</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.859022252323566</v>
+        <v>0.8590222523235661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8463487066148598</v>
+        <v>0.8467002993089254</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8711307322217698</v>
+        <v>0.8703683366699272</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3711</v>
@@ -1484,19 +1484,19 @@
         <v>2680156</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2629100</v>
+        <v>2631970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2729909</v>
+        <v>2730718</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7188668556148466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7051725691444696</v>
+        <v>0.7059424773630137</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7322114309295095</v>
+        <v>0.7324285275781017</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6500</v>
@@ -1505,19 +1505,19 @@
         <v>5704501</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5632093</v>
+        <v>5631005</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5765323</v>
+        <v>5763215</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7869373991041033</v>
+        <v>0.7869373991041034</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7769486492005901</v>
+        <v>0.7767985907410665</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7953277220337299</v>
+        <v>0.795036993162952</v>
       </c>
     </row>
     <row r="15">
